--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
@@ -690,33 +690,9 @@
     <t>Cross-checked by</t>
   </si>
   <si>
-    <t>Mrs. Kimberly</t>
-  </si>
-  <si>
-    <t>Ms. Ellen Hanh</t>
-  </si>
-  <si>
     <t>[9]=[6] X 20,000</t>
   </si>
   <si>
-    <t>Chloe Thao</t>
-  </si>
-  <si>
-    <t>Ms Stacy Oanh</t>
-  </si>
-  <si>
-    <t>Từ Ngọc Phượng</t>
-  </si>
-  <si>
-    <t>0531002489788</t>
-  </si>
-  <si>
-    <t>vietcombank chi nhanh Dong Sai gon</t>
-  </si>
-  <si>
-    <t>260975545</t>
-  </si>
-  <si>
     <t>PIT (10%)</t>
   </si>
   <si>
@@ -729,9 +705,6 @@
     <t>{ForMonth}</t>
   </si>
   <si>
-    <t>CW/Qty</t>
-  </si>
-  <si>
     <t>{CUSTOMER}</t>
   </si>
   <si>
@@ -793,6 +766,33 @@
   </si>
   <si>
     <t>{Net}</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>{BeneficiaryName}</t>
+  </si>
+  <si>
+    <t>{BankAccount}</t>
+  </si>
+  <si>
+    <t>{BankVia}</t>
+  </si>
+  <si>
+    <t>{Taxcode}</t>
+  </si>
+  <si>
+    <t>{CurrentUser}</t>
+  </si>
+  <si>
+    <t>{ManagerDep}</t>
+  </si>
+  <si>
+    <t>{ManOffice}</t>
+  </si>
+  <si>
+    <t>{HeadAccountant}</t>
   </si>
 </sst>
 </file>
@@ -1121,33 +1121,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,6 +1142,33 @@
     </xf>
     <xf numFmtId="165" fontId="23" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1549,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1577,58 +1577,58 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:18">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
+      <c r="A9" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="6" customFormat="1" ht="78.75">
@@ -1639,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>4</v>
@@ -1651,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
@@ -1681,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>15</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>24</v>
@@ -1729,66 +1729,66 @@
         <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="H14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="K14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="L14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="M14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="N14" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="O14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="13" customFormat="1">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="33" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D18" s="17"/>
       <c r="F18" s="18">
@@ -1888,25 +1888,25 @@
         <v>31</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="42">
-        <f>R15</f>
+      <c r="C19" s="50">
+        <f>F21</f>
         <v>0</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="D19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
       <c r="R19" s="21"/>
     </row>
     <row r="20" spans="1:18" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
+      <c r="C20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
       <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" s="15" customFormat="1" ht="16.5">
@@ -1914,7 +1914,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D21" s="36"/>
       <c r="L21" s="23"/>
@@ -1925,10 +1925,10 @@
       <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="38"/>
+      <c r="C22" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="46"/>
       <c r="L22" s="23"/>
       <c r="M22" s="19"/>
     </row>
@@ -1936,10 +1936,10 @@
       <c r="A23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:18" s="15" customFormat="1">
@@ -1985,16 +1985,16 @@
     </row>
     <row r="30" spans="1:18" s="24" customFormat="1" ht="18.75">
       <c r="C30" s="24" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P30" s="30" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="15" customFormat="1">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9585" tabRatio="729"/>
   </bookViews>
   <sheets>
-    <sheet name="8" sheetId="27" r:id="rId1"/>
+    <sheet name="Commission PR" sheetId="27" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,552 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Cara Oanh</author>
-    <author>Account</author>
-  </authors>
-  <commentList>
-    <comment ref="A10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CUSTOMER: Name EN của Customer trên HBL</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ex.rate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Service Date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-HAWB No</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CW in HAWB/ HBL</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- Đối với hàng Export: Destination (Port Code)
-- Đối với hàng Import: Departure (Port Code)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= Total Amount Buying USD - Phí 'Commission' 
--&gt; Quy đổi theo final exchange rate của charge, nếu chưa có final exchange rate sẽ quy đổi theo exchange rate date </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= Total Amount Selling USD - Phí 'Commission' 
--&gt; Quy đổi theo final exchange rate của charge, nếu chưa có final exchange rate sẽ quy đổi theo exchange rate date </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= [6] / [1]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Giá trị total của phí 'Commission' </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= [6] / ( [7]/60% )</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= [6] * Ex.rate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu (6) - (8) &lt;0 thì lấy giá trị "0"
-Nếu (6) - (8) &gt;0 thì = ( [6]-[8] ) * Ex.rate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Account:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Partner Name từ field Beneficiary: Tên Tiếng Việt
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= Total Net due to customer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A20" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Account:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-so tai khoan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Account:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ngan hang nguoi thu huong</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Tax Code</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Current User (EN Name)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Manager Department</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Manager Office của current user</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Head Kế Toán theo Office của current user</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>COMMISSION PAYMENT REQUEST</t>
   </si>
@@ -793,22 +249,29 @@
   </si>
   <si>
     <t>{HeadAccountant}</t>
+  </si>
+  <si>
+    <t>{TotalCW}</t>
+  </si>
+  <si>
+    <t>{Amount}</t>
+  </si>
+  <si>
+    <t>{Total}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0\ [$VND]"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$VND]"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,19 +401,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -966,19 +416,6 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1113,12 +550,12 @@
     <xf numFmtId="43" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,20 +565,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1201,8 +638,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>151279</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1199029</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>89086</xdr:rowOff>
     </xdr:to>
@@ -1546,28 +983,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1748,22 +1185,22 @@
       <c r="D14" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="40" t="s">
         <v>57</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -1784,7 +1221,7 @@
       <c r="P14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="41" t="s">
         <v>64</v>
       </c>
       <c r="R14" s="8" t="s">
@@ -1796,66 +1233,51 @@
         <v>28</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:R15" si="0">SUM(C14:C14)</f>
-        <v>0</v>
+      <c r="C15" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="15" customFormat="1">
@@ -1888,9 +1310,8 @@
         <v>31</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="50">
-        <f>F21</f>
-        <v>0</v>
+      <c r="C19" s="50" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="50"/>
       <c r="L19" s="51"/>
@@ -2015,6 +1436,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>COMMISSION PAYMENT REQUEST</t>
   </si>
@@ -257,7 +257,46 @@
     <t>{Amount}</t>
   </si>
   <si>
-    <t>{Total}</t>
+    <t>{Total1}</t>
+  </si>
+  <si>
+    <t>{Total2}</t>
+  </si>
+  <si>
+    <t>{Total3}</t>
+  </si>
+  <si>
+    <t>{Total4}</t>
+  </si>
+  <si>
+    <t>{Total5}</t>
+  </si>
+  <si>
+    <t>{Total6}</t>
+  </si>
+  <si>
+    <t>{Total7}</t>
+  </si>
+  <si>
+    <t>{Total8}</t>
+  </si>
+  <si>
+    <t>{Total9}</t>
+  </si>
+  <si>
+    <t>{Total10}</t>
+  </si>
+  <si>
+    <t>{Total11}</t>
+  </si>
+  <si>
+    <t>{Total12}</t>
+  </si>
+  <si>
+    <t>{Total13}</t>
+  </si>
+  <si>
+    <t>{Total14}</t>
   </si>
 </sst>
 </file>
@@ -493,12 +532,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -547,9 +580,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -558,26 +588,37 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -986,13 +1027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="29" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
@@ -1172,29 +1213,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="6" customFormat="1">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:18" s="6" customFormat="1" ht="39">
+      <c r="A14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="35" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="40" t="s">
@@ -1203,123 +1244,121 @@
       <c r="J14" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="41" t="s">
+      <c r="Q14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="13" customFormat="1">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="14"/>
-    </row>
-    <row r="17" spans="1:18" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+      <c r="F15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="13" customFormat="1">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1">
+      <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="15" customFormat="1" ht="18">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:18" s="13" customFormat="1" ht="18">
+      <c r="A18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="F18" s="18">
-        <v>13117</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="P18" s="35"/>
-      <c r="R18" s="20"/>
-    </row>
-    <row r="19" spans="1:18" s="15" customFormat="1">
-      <c r="A19" s="15" t="s">
+      <c r="D18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="P18" s="32"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" s="13" customFormat="1">
+      <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:18" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18" s="13" customFormat="1">
+      <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="52" t="s">
@@ -1328,98 +1367,98 @@
       <c r="D20" s="47"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
-      <c r="R20" s="22"/>
-    </row>
-    <row r="21" spans="1:18" s="15" customFormat="1" ht="16.5">
-      <c r="A21" s="15" t="s">
+      <c r="R20" s="20"/>
+    </row>
+    <row r="21" spans="1:18" s="13" customFormat="1" ht="16.5">
+      <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="19"/>
-      <c r="R21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" s="15" customFormat="1">
-      <c r="A22" s="15" t="s">
+      <c r="D21" s="33"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="17"/>
+      <c r="R21" s="20"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1">
+      <c r="A22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="46"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:18" s="13" customFormat="1">
+      <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:18" s="15" customFormat="1">
-      <c r="A24" s="14"/>
-      <c r="N24" s="21"/>
-    </row>
-    <row r="25" spans="1:18" s="24" customFormat="1">
-      <c r="C25" s="25" t="s">
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1">
+      <c r="A24" s="12"/>
+      <c r="N24" s="19"/>
+    </row>
+    <row r="25" spans="1:18" s="22" customFormat="1">
+      <c r="C25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26" t="s">
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="24" customFormat="1">
-      <c r="C26" s="28"/>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="1:18" s="24" customFormat="1">
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:18" s="24" customFormat="1">
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:18" s="24" customFormat="1">
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:18" s="24" customFormat="1" ht="18.75">
-      <c r="C30" s="24" t="s">
+    <row r="26" spans="1:18" s="22" customFormat="1">
+      <c r="C26" s="26"/>
+      <c r="N26" s="27"/>
+    </row>
+    <row r="27" spans="1:18" s="22" customFormat="1">
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:18" s="22" customFormat="1">
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:18" s="22" customFormat="1">
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:18" s="22" customFormat="1" ht="18.75">
+      <c r="C30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="30" t="s">
+      <c r="P30" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="15" customFormat="1">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:18" s="13" customFormat="1">
+      <c r="A32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
@@ -303,7 +303,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -515,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -588,9 +589,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -606,9 +604,6 @@
     <xf numFmtId="43" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -619,6 +614,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -723,8 +727,8 @@
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>17555</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>722405</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>43143</xdr:rowOff>
     </xdr:to>
@@ -1035,7 +1039,7 @@
   <cols>
     <col min="1" max="1" width="10.42578125" style="29" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
@@ -1046,8 +1050,8 @@
     <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1055,48 +1059,48 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:18">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
@@ -1214,58 +1218,58 @@
       </c>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1" ht="39">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="43" t="s">
+      <c r="N14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="43" t="s">
+      <c r="O14" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="39" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1311,13 +1315,13 @@
       <c r="O15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="43" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1349,24 +1353,24 @@
         <v>31</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
       <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" s="13" customFormat="1">
       <c r="A20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="D20" s="48"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
       <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" s="13" customFormat="1" ht="16.5">
@@ -1385,10 +1389,10 @@
       <c r="A22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="L22" s="21"/>
       <c r="M22" s="17"/>
     </row>
@@ -1396,10 +1400,10 @@
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1">

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Commission-PR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne.loc\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynne.Loc.ITL\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,9 +101,6 @@
     <t>[10]=([6]-[8])X20,000</t>
   </si>
   <si>
-    <t>[11]=[10]X25%</t>
-  </si>
-  <si>
     <t>[12]=[9]-[11]</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>{Total14}</t>
+  </si>
+  <si>
+    <t>[11]=[10]X20%</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
   <dimension ref="A8:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="6" customFormat="1" ht="78.75">
@@ -1121,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
@@ -1163,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>15</v>
@@ -1199,130 +1199,130 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="6" customFormat="1" ht="39">
       <c r="A14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="F14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="G14" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="45" t="s">
+      <c r="K14" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="M14" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="O14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="P14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="Q14" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="R14" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="R14" s="39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="11" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="43" t="s">
+      <c r="Q15" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="43" t="s">
+      <c r="R15" s="43" t="s">
         <v>89</v>
-      </c>
-      <c r="R15" s="43" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="13" customFormat="1">
@@ -1330,16 +1330,16 @@
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1" ht="18">
       <c r="A18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="15"/>
       <c r="F18" s="16"/>
@@ -1350,11 +1350,11 @@
     </row>
     <row r="19" spans="1:18" s="13" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="51"/>
       <c r="L19" s="52"/>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="20" spans="1:18" s="13" customFormat="1">
       <c r="A20" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="48"/>
       <c r="L20" s="54"/>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="21" spans="1:18" s="13" customFormat="1" ht="16.5">
       <c r="A21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="33"/>
       <c r="L21" s="21"/>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="47"/>
       <c r="L22" s="21"/>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="23" spans="1:18" s="13" customFormat="1">
       <c r="A23" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -1412,26 +1412,26 @@
     </row>
     <row r="25" spans="1:18" s="22" customFormat="1">
       <c r="C25" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="25"/>
       <c r="O25" s="24"/>
       <c r="P25" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="22" customFormat="1">
@@ -1449,16 +1449,16 @@
     </row>
     <row r="30" spans="1:18" s="22" customFormat="1" ht="18.75">
       <c r="C30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="K30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="P30" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="P30" s="28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="13" customFormat="1">
